--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepepe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユイ\Desktop\GC1\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -125,6 +125,20 @@
   </si>
   <si>
     <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -132,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +159,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -223,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +554,7 @@
   <dimension ref="A1:CT13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -537,6 +563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
       <c r="D1" s="1">
         <v>44862</v>
       </c>
@@ -904,5 +936,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -138,6 +138,34 @@
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三好</t>
+    <rPh sb="0" eb="2">
+      <t>ミヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山里</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマザト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックマン風</t>
+    <rPh sb="5" eb="6">
+      <t>フウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,21 +220,39 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -217,27 +263,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -246,30 +292,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT13"/>
+  <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -562,8 +620,11 @@
     <col min="2" max="2" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:98" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
@@ -856,83 +917,118 @@
       </c>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:98" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:98" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:98" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユイ\Desktop\GC1\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryou\Desktop\C\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -166,6 +166,13 @@
     <t>パックマン風</t>
     <rPh sb="5" eb="6">
       <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森口</t>
+    <rPh sb="0" eb="2">
+      <t>モリグチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,21 +309,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,9 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +619,7 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -621,7 +628,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -917,13 +924,13 @@
       </c>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
@@ -931,37 +938,37 @@
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -970,13 +977,13 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -984,7 +991,7 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -993,13 +1000,15 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1008,19 +1017,19 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryou\Desktop\C\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユイ\Desktop\GC1\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -173,6 +173,17 @@
     <t>森口</t>
     <rPh sb="0" eb="2">
       <t>モリグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,7 +630,7 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -960,15 +971,18 @@
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="V6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -977,15 +991,15 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -1032,12 +1046,11 @@
       <c r="C15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C6:C8"/>
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
